--- a/results/BINARY/Linezolid.xlsx
+++ b/results/BINARY/Linezolid.xlsx
@@ -1197,7 +1197,7 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>Probable Assoc w R</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr"/>
